--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-email-config.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-data-email-config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="84">
   <si>
     <r>
       <rPr>
@@ -1932,49 +1932,58 @@
     <t>filter_strategy</t>
   </si>
   <si>
+    <t>tenant_id:zh_CN</t>
+  </si>
+  <si>
+    <t>tenant_id:en_US</t>
+  </si>
+  <si>
+    <t>hmsg_email_server-9</t>
+  </si>
+  <si>
+    <t>CHOERODON-EMAIL</t>
+  </si>
+  <si>
+    <t>平台默认邮箱设置</t>
+  </si>
+  <si>
+    <t>smtp.164.com</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>smtp</t>
+  </si>
+  <si>
+    <t>******</t>
+  </si>
+  <si>
+    <t>eg:hzero@163.com</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>邮箱服务配置</t>
+  </si>
+  <si>
+    <t>hmsg_email_property</t>
+  </si>
+  <si>
+    <t>*property_id</t>
+  </si>
+  <si>
+    <t>#server_id</t>
+  </si>
+  <si>
+    <t>#property_code</t>
+  </si>
+  <si>
+    <t>property_value</t>
+  </si>
+  <si>
     <t>#tenant_id</t>
-  </si>
-  <si>
-    <t>hmsg_email_server-9</t>
-  </si>
-  <si>
-    <t>CHOERODON-EMAIL</t>
-  </si>
-  <si>
-    <t>平台默认邮箱设置</t>
-  </si>
-  <si>
-    <t>smtp.164.com</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>smtp</t>
-  </si>
-  <si>
-    <t>******</t>
-  </si>
-  <si>
-    <t>eg:hzero@163.com</t>
-  </si>
-  <si>
-    <t>邮箱服务配置</t>
-  </si>
-  <si>
-    <t>hmsg_email_property</t>
-  </si>
-  <si>
-    <t>*property_id</t>
-  </si>
-  <si>
-    <t>#server_id</t>
-  </si>
-  <si>
-    <t>#property_code</t>
-  </si>
-  <si>
-    <t>property_value</t>
   </si>
 </sst>
 </file>
@@ -1982,12 +1991,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="38">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2056,8 +2065,74 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2071,6 +2146,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -2078,37 +2177,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2131,83 +2202,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2289,7 +2292,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2301,7 +2310,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2313,37 +2328,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2361,13 +2412,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2379,73 +2436,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2463,13 +2460,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2576,15 +2579,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2618,18 +2612,16 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2650,15 +2642,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2673,154 +2656,174 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="36" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3525,10 +3528,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q$1:Q$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.4"/>
@@ -3563,7 +3566,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3615,43 +3618,49 @@
       <c r="Q7" s="3" t="s">
         <v>66</v>
       </c>
+      <c r="R7" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="8" spans="5:17">
+    <row r="8" spans="5:18">
       <c r="E8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K8">
         <v>3</v>
       </c>
       <c r="L8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O8">
         <v>1</v>
       </c>
-      <c r="Q8">
-        <v>0</v>
+      <c r="Q8" t="s">
+        <v>76</v>
+      </c>
+      <c r="R8" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3662,25 +3671,25 @@
         <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
